--- a/messages.xlsx
+++ b/messages.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +661,86 @@
       </c>
       <c r="D11" t="n">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>午餐</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>午餐</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>電子</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信用卡</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>午餐</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
